--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zxy</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1: 主线</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -30,6 +62,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>activityId</t>
+  </si>
+  <si>
     <t>mapId</t>
   </si>
   <si>
@@ -57,6 +92,9 @@
     <t>战斗介绍</t>
   </si>
   <si>
+    <t>活动 id</t>
+  </si>
+  <si>
     <t>地图 id</t>
   </si>
   <si>
@@ -66,16 +104,37 @@
     <t>战斗配置id</t>
   </si>
   <si>
-    <t>主线第 1 场战斗</t>
-  </si>
-  <si>
-    <t>主线第 1 场战斗 介绍</t>
-  </si>
-  <si>
-    <t>主线第 2 场战斗</t>
-  </si>
-  <si>
-    <t>主线第 2 场战斗 介绍</t>
+    <t>主线 1-1</t>
+  </si>
+  <si>
+    <t>主线 1-2</t>
+  </si>
+  <si>
+    <t>主线 1-3</t>
+  </si>
+  <si>
+    <t>主线 1-4</t>
+  </si>
+  <si>
+    <t>主线 1-5</t>
+  </si>
+  <si>
+    <t>主线 2-1</t>
+  </si>
+  <si>
+    <t>主线 2-2</t>
+  </si>
+  <si>
+    <t>主线 2-3</t>
+  </si>
+  <si>
+    <t>主线 3-1</t>
+  </si>
+  <si>
+    <t>主线 3-2</t>
+  </si>
+  <si>
+    <t>主线 3-3</t>
   </si>
 </sst>
 </file>
@@ -88,7 +147,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +157,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,7 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -127,22 +208,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,16 +252,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,22 +285,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -205,40 +294,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -250,181 +320,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +511,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,11 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,21 +593,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,145 +619,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,22 +1122,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="4" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,115 +1159,381 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>5001001</v>
+        <v>5001011</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>7001001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>6001001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>8001001</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>5001002</v>
+        <v>5001012</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1">
-        <v>7001002</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>6001002</v>
-      </c>
-      <c r="G5">
-        <v>8001002</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="3:6">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>7001001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H5">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5001013</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H6">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5001014</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H7">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5001015</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H8">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>5001021</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H10">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5001022</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H11">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>5001023</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H12">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>5001031</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H14">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>5001032</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H15">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>5001033</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7001001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6001001</v>
+      </c>
+      <c r="H16">
+        <v>8001001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -74,6 +74,9 @@
     <t>battleConfigId</t>
   </si>
   <si>
+    <t>teamInfo</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -104,9 +107,15 @@
     <t>战斗配置id</t>
   </si>
   <si>
+    <t>队伍信息(| 分割队伍  ,分割玩家索引)</t>
+  </si>
+  <si>
     <t>主线 1-1</t>
   </si>
   <si>
+    <t>0,1,2,3|-1</t>
+  </si>
+  <si>
     <t>主线 1-2</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
     <t>主线 2-1</t>
   </si>
   <si>
+    <t>0|-1</t>
+  </si>
+  <si>
     <t>主线 2-2</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
   </si>
   <si>
     <t>主线 3-1</t>
+  </si>
+  <si>
+    <t>0,1,2,3|4,5,6,7</t>
   </si>
   <si>
     <t>主线 3-2</t>
@@ -142,8 +157,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -157,7 +172,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,14 +201,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,21 +232,61 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,76 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -300,6 +308,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -311,7 +326,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,31 +335,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,84 +497,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,55 +509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,15 +540,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,7 +563,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +583,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,17 +614,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,150 +640,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1122,26 +1146,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="6" width="25.375" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1159,375 +1184,417 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>5001011</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>7001001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>6001001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>8001001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>5001012</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>7001001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>6001001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>8001001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>5001013</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>7001001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>6001001</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>8001001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>5001014</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7001001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6001001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8001001</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7001001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6001001</v>
-      </c>
-      <c r="H7">
-        <v>8001001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>5001015</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>7001001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>6001001</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>8001001</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>5001021</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>7001001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>6001001</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>8001001</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
         <v>5001022</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>7001001</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>6001001</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>8001001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
         <v>5001023</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>7001001</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>6001001</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>8001001</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <v>5001031</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>7001001</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>6001001</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>8001001</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
         <v>5001032</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>7001001</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>6001001</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>8001001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
         <v>5001033</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>7001001</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>6001001</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>8001001</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1: 主线</t>
+1: 主线
+10:组队</t>
         </r>
       </text>
     </comment>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -71,6 +72,9 @@
     <t>triggerId</t>
   </si>
   <si>
+    <t>initPos</t>
+  </si>
+  <si>
     <t>battleConfigId</t>
   </si>
   <si>
@@ -104,6 +108,9 @@
     <t>战斗触发器id</t>
   </si>
   <si>
+    <t>玩家控制实体初始位置(|分割玩家 ,分割坐标轴)</t>
+  </si>
+  <si>
     <t>战斗配置id</t>
   </si>
   <si>
@@ -113,6 +120,9 @@
     <t>主线 1-1</t>
   </si>
   <si>
+    <t>4,0,4</t>
+  </si>
+  <si>
     <t>0,1,2,3|-1</t>
   </si>
   <si>
@@ -150,6 +160,12 @@
   </si>
   <si>
     <t>主线 3-3</t>
+  </si>
+  <si>
+    <t>组队副本 1</t>
+  </si>
+  <si>
+    <t>4,0,4|4,0,6|6,0,6|4,0,8|8,0,8</t>
   </si>
 </sst>
 </file>
@@ -157,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -172,7 +188,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +212,45 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,66 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -271,22 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +303,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,15 +548,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,15 +562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,11 +592,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +628,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -640,145 +656,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1158,11 +1174,12 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="6" width="25.375" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.75" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1184,72 +1201,81 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:9">
+    <row r="3" ht="93" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1257,10 +1283,10 @@
         <v>5001011</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1271,14 +1297,17 @@
       <c r="G4" s="2">
         <v>6001001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1">
         <v>8001001</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1286,10 +1315,10 @@
         <v>5001012</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1300,14 +1329,17 @@
       <c r="G5" s="2">
         <v>6001001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1">
         <v>8001001</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1315,10 +1347,10 @@
         <v>5001013</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1329,14 +1361,17 @@
       <c r="G6" s="2">
         <v>6001001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1">
         <v>8001001</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1344,10 +1379,10 @@
         <v>5001014</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1358,14 +1393,17 @@
       <c r="G7" s="2">
         <v>6001001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1">
         <v>8001001</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1373,10 +1411,10 @@
         <v>5001015</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1387,21 +1425,25 @@
       <c r="G8" s="2">
         <v>6001001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1">
         <v>8001001</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:8">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1409,10 +1451,10 @@
         <v>5001021</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1423,14 +1465,17 @@
       <c r="G10" s="2">
         <v>6001001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1">
         <v>8001001</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1438,10 +1483,10 @@
         <v>5001022</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1452,14 +1497,17 @@
       <c r="G11" s="2">
         <v>6001001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
         <v>8001001</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1467,10 +1515,10 @@
         <v>5001023</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1481,21 +1529,25 @@
       <c r="G12" s="2">
         <v>6001001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1">
         <v>8001001</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:8">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1503,10 +1555,10 @@
         <v>5001031</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1517,14 +1569,17 @@
       <c r="G14" s="2">
         <v>6001001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1">
         <v>8001001</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1532,10 +1587,10 @@
         <v>5001032</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1546,14 +1601,17 @@
       <c r="G15" s="2">
         <v>6001001</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1">
         <v>8001001</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>21</v>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1561,10 +1619,10 @@
         <v>5001033</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1575,26 +1633,55 @@
       <c r="G16" s="2">
         <v>6001001</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1">
         <v>8001001</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:8">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>5002001</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7001001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6002001</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8002001</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -72,6 +72,9 @@
     <t>triggerId</t>
   </si>
   <si>
+    <t>forceUseHeroList</t>
+  </si>
+  <si>
     <t>initPos</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>战斗触发器id</t>
   </si>
   <si>
+    <t>强制玩家控制某一个实体(|分割玩家 ,分割索引和实体id)</t>
+  </si>
+  <si>
     <t>玩家控制实体初始位置(|分割玩家 ,分割坐标轴)</t>
   </si>
   <si>
@@ -166,6 +172,15 @@
   </si>
   <si>
     <t>4,0,4|4,0,6|6,0,6|4,0,8|8,0,8</t>
+  </si>
+  <si>
+    <t>纯单机战斗</t>
+  </si>
+  <si>
+    <t>纯单机战斗(上官翎)</t>
+  </si>
+  <si>
+    <t>0,1200001</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1173,13 +1188,13 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="6" width="25.375" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="31.75" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="31.75" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,78 +1219,87 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1283,10 +1307,10 @@
         <v>5001011</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1297,17 +1321,20 @@
       <c r="G4" s="2">
         <v>6001001</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1">
         <v>8001001</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1315,10 +1342,10 @@
         <v>5001012</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1329,17 +1356,20 @@
       <c r="G5" s="2">
         <v>6001001</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1">
         <v>8001001</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1347,10 +1377,10 @@
         <v>5001013</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1361,17 +1391,20 @@
       <c r="G6" s="2">
         <v>6001001</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1">
         <v>8001001</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1379,10 +1412,10 @@
         <v>5001014</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1393,17 +1426,20 @@
       <c r="G7" s="2">
         <v>6001001</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1">
         <v>8001001</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1411,10 +1447,10 @@
         <v>5001015</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1425,25 +1461,29 @@
       <c r="G8" s="2">
         <v>6001001</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1">
         <v>8001001</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:9">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1451,10 +1491,10 @@
         <v>5001021</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1465,17 +1505,20 @@
       <c r="G10" s="2">
         <v>6001001</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1">
         <v>8001001</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1483,10 +1526,10 @@
         <v>5001022</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1497,17 +1540,20 @@
       <c r="G11" s="2">
         <v>6001001</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1">
         <v>8001001</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>24</v>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1515,10 +1561,10 @@
         <v>5001023</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1529,25 +1575,29 @@
       <c r="G12" s="2">
         <v>6001001</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1">
         <v>8001001</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>24</v>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="3:9">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1555,10 +1605,10 @@
         <v>5001031</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1569,17 +1619,20 @@
       <c r="G14" s="2">
         <v>6001001</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1">
         <v>8001001</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
+      <c r="K14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1587,10 +1640,10 @@
         <v>5001032</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1601,17 +1654,20 @@
       <c r="G15" s="2">
         <v>6001001</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1">
         <v>8001001</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>24</v>
+      <c r="K15" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1619,10 +1675,10 @@
         <v>5001033</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1633,25 +1689,29 @@
       <c r="G16" s="2">
         <v>6001001</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1">
         <v>8001001</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>24</v>
+      <c r="K16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="3:9">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1659,10 +1719,10 @@
         <v>5002001</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -1673,14 +1733,52 @@
       <c r="G18" s="2">
         <v>6002001</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="1">
         <v>8002001</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>24</v>
+      <c r="K18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>5900001</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7001001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6001001</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8001001</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -114,7 +114,7 @@
     <t>强制玩家控制某一个实体(|分割玩家 ,分割索引和实体id)</t>
   </si>
   <si>
-    <t>玩家控制实体初始位置(|分割玩家 ,分割坐标轴)</t>
+    <t>玩家控制实体初始位置(|分割玩家 ,分割坐标轴)(长度作为玩家数最大数目)</t>
   </si>
   <si>
     <t>战斗配置id</t>
@@ -126,27 +126,33 @@
     <t>主线 1-1</t>
   </si>
   <si>
+    <t>0,0|1,1200001|2,1200001</t>
+  </si>
+  <si>
+    <t>4,0,4|4,0,6|6,0,6</t>
+  </si>
+  <si>
+    <t>0,1,2,3|-1</t>
+  </si>
+  <si>
+    <t>主线 1-2</t>
+  </si>
+  <si>
+    <t>主线 1-3</t>
+  </si>
+  <si>
+    <t>主线 1-4</t>
+  </si>
+  <si>
+    <t>主线 1-5</t>
+  </si>
+  <si>
+    <t>主线 2-1</t>
+  </si>
+  <si>
     <t>4,0,4</t>
   </si>
   <si>
-    <t>0,1,2,3|-1</t>
-  </si>
-  <si>
-    <t>主线 1-2</t>
-  </si>
-  <si>
-    <t>主线 1-3</t>
-  </si>
-  <si>
-    <t>主线 1-4</t>
-  </si>
-  <si>
-    <t>主线 1-5</t>
-  </si>
-  <si>
-    <t>主线 2-1</t>
-  </si>
-  <si>
     <t>0|-1</t>
   </si>
   <si>
@@ -171,6 +177,9 @@
     <t>组队副本 1</t>
   </si>
   <si>
+    <t>0,0|1,0|2,1200001</t>
+  </si>
+  <si>
     <t>4,0,4|4,0,6|6,0,6|4,0,8|8,0,8</t>
   </si>
   <si>
@@ -180,7 +189,7 @@
     <t>纯单机战斗(上官翎)</t>
   </si>
   <si>
-    <t>0,1200001</t>
+    <t>0,1200001|1,1200002|2,1200003</t>
   </si>
 </sst>
 </file>
@@ -346,12 +355,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1179,8 +1188,8 @@
   <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1188,7 +1197,8 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="6" width="25.375" customWidth="1"/>
-    <col min="7" max="8" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
     <col min="9" max="9" width="31.75" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="43.25" style="1" customWidth="1"/>
@@ -1321,17 +1331,17 @@
       <c r="G4" s="2">
         <v>6001001</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1">
         <v>8001001</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1342,10 +1352,10 @@
         <v>5001012</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1356,17 +1366,17 @@
       <c r="G5" s="2">
         <v>6001001</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1">
         <v>8001001</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1377,10 +1387,10 @@
         <v>5001013</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1391,17 +1401,17 @@
       <c r="G6" s="2">
         <v>6001001</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1">
         <v>8001001</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1412,10 +1422,10 @@
         <v>5001014</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1426,17 +1436,17 @@
       <c r="G7" s="2">
         <v>6001001</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1">
         <v>8001001</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1447,10 +1457,10 @@
         <v>5001015</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1461,17 +1471,17 @@
       <c r="G8" s="2">
         <v>6001001</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1">
         <v>8001001</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="3:9">
@@ -1491,10 +1501,10 @@
         <v>5001021</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1509,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1">
         <v>8001001</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1526,10 +1536,10 @@
         <v>5001022</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1544,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1">
         <v>8001001</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1561,10 +1571,10 @@
         <v>5001023</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1579,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1">
         <v>8001001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:9">
@@ -1605,10 +1615,10 @@
         <v>5001031</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1623,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1">
         <v>8001001</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1640,10 +1650,10 @@
         <v>5001032</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1658,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1">
         <v>8001001</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1675,10 +1685,10 @@
         <v>5001033</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1693,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1">
         <v>8001001</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:9">
@@ -1719,10 +1729,10 @@
         <v>5002001</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -1733,17 +1743,17 @@
       <c r="G18" s="2">
         <v>6002001</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
+      <c r="H18" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1">
         <v>8002001</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1754,10 +1764,10 @@
         <v>5900001</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1769,16 +1779,16 @@
         <v>6001001</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1">
         <v>8001001</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>组队副本 1</t>
-  </si>
-  <si>
-    <t>0,0|1,0|2,1200001</t>
   </si>
   <si>
     <t>4,0,4|4,0,6|6,0,6|4,0,8|8,0,8</t>
@@ -355,12 +352,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1188,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1744,10 +1741,10 @@
         <v>6002001</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="J18" s="1">
         <v>8002001</v>
@@ -1764,10 +1761,10 @@
         <v>5900001</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1779,7 +1776,7 @@
         <v>6001001</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>26</v>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -129,7 +129,7 @@
     <t>0,0|1,1200001|2,1200001</t>
   </si>
   <si>
-    <t>4,0,4|4,0,6|6,0,6</t>
+    <t>24,0,14|26,0,16|24,0,18</t>
   </si>
   <si>
     <t>0,1,2,3|-1</t>
@@ -150,7 +150,7 @@
     <t>主线 2-1</t>
   </si>
   <si>
-    <t>4,0,4</t>
+    <t>24,0,14</t>
   </si>
   <si>
     <t>0|-1</t>
@@ -177,16 +177,34 @@
     <t>组队副本 1</t>
   </si>
   <si>
-    <t>4,0,4|4,0,6|6,0,6|4,0,8|8,0,8</t>
+    <t>24,0,14|24,0,16|24,0,18|26,0,14|26,0,16</t>
   </si>
   <si>
     <t>纯单机战斗</t>
   </si>
   <si>
-    <t>纯单机战斗(上官翎)</t>
+    <t>纯单机战斗(上官唯)</t>
+  </si>
+  <si>
+    <t>0,1000202</t>
   </si>
   <si>
     <t>0,1200001|1,1200002|2,1200003</t>
+  </si>
+  <si>
+    <t>纯单机战斗测试</t>
+  </si>
+  <si>
+    <t>0,1200001|1,1200021</t>
+  </si>
+  <si>
+    <t>1200021 唐依</t>
+  </si>
+  <si>
+    <t>0,1000202 刀疤</t>
+  </si>
+  <si>
+    <t>1200001 上官唯</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1779,13 +1797,98 @@
         <v>45</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J23" s="1">
         <v>8001001</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>5900002</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7001001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6001001</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8001001</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>5900010</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7001001</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6003001</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1">
+        <v>8001001</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
     <t>纯单机战斗测试</t>
   </si>
   <si>
-    <t>0,1200001|1,1200021</t>
+    <t>0,1200021</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -370,12 +370,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
     <t>纯单机战斗测试</t>
   </si>
   <si>
-    <t>0,1200021</t>
+    <t>0,1200001</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -370,12 +370,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>0,1200001</t>
+  </si>
+  <si>
+    <t>25,0,25|25,0,26|24,0,18</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -1204,7 +1207,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1867,7 +1870,7 @@
         <v>48</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J26" s="1">
         <v>8001001</v>
@@ -1878,17 +1881,17 @@
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -177,6 +177,9 @@
     <t>组队副本 1</t>
   </si>
   <si>
+    <t>0,1200001</t>
+  </si>
+  <si>
     <t>24,0,14|24,0,16|24,0,18|26,0,14|26,0,16</t>
   </si>
   <si>
@@ -195,7 +198,7 @@
     <t>纯单机战斗测试</t>
   </si>
   <si>
-    <t>0,1200001</t>
+    <t>0,1200021</t>
   </si>
   <si>
     <t>25,0,25|25,0,26|24,0,18</t>
@@ -1207,7 +1210,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1762,10 +1765,10 @@
         <v>6002001</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1">
         <v>8002001</v>
@@ -1782,10 +1785,10 @@
         <v>5900001</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1797,7 +1800,7 @@
         <v>6001001</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>33</v>
@@ -1817,10 +1820,10 @@
         <v>5900002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1832,7 +1835,7 @@
         <v>6001001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>26</v>
@@ -1852,25 +1855,25 @@
         <v>5900010</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G26" s="2">
         <v>6003001</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1">
         <v>8001001</v>
@@ -1881,17 +1884,17 @@
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>纯单机战斗测试</t>
-  </si>
-  <si>
-    <t>0,1200021</t>
   </si>
   <si>
     <t>25,0,25|25,0,26|24,0,18</t>
@@ -1209,8 +1206,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1870,10 +1867,10 @@
         <v>6003001</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="J26" s="1">
         <v>8001001</v>
@@ -1884,17 +1881,17 @@
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -78,6 +78,9 @@
     <t>initPos</t>
   </si>
   <si>
+    <t>bossLimitTime</t>
+  </si>
+  <si>
     <t>battleConfigId</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t>玩家控制实体初始位置(|分割玩家 ,分割坐标轴)(长度作为玩家数最大数目)</t>
   </si>
   <si>
+    <t>boss限时击杀时间(*1000 微妙)</t>
+  </si>
+  <si>
     <t>战斗配置id</t>
   </si>
   <si>
@@ -129,7 +135,7 @@
     <t>0,0|1,1200001|2,1200001</t>
   </si>
   <si>
-    <t>24,0,14|26,0,16|24,0,18</t>
+    <t>14,0,12|14,0,13|13,0,14</t>
   </si>
   <si>
     <t>0,1,2,3|-1</t>
@@ -150,9 +156,6 @@
     <t>主线 2-1</t>
   </si>
   <si>
-    <t>24,0,14</t>
-  </si>
-  <si>
     <t>0|-1</t>
   </si>
   <si>
@@ -177,28 +180,22 @@
     <t>组队副本 1</t>
   </si>
   <si>
+    <t>纯单机战斗</t>
+  </si>
+  <si>
+    <t>纯单机战斗(上官唯)</t>
+  </si>
+  <si>
+    <t>0,1000202</t>
+  </si>
+  <si>
+    <t>0,1200001|1,1200002|2,1200003</t>
+  </si>
+  <si>
+    <t>纯单机测试关卡</t>
+  </si>
+  <si>
     <t>0,1200001</t>
-  </si>
-  <si>
-    <t>24,0,14|24,0,16|24,0,18|26,0,14|26,0,16</t>
-  </si>
-  <si>
-    <t>纯单机战斗</t>
-  </si>
-  <si>
-    <t>纯单机战斗(上官唯)</t>
-  </si>
-  <si>
-    <t>0,1000202</t>
-  </si>
-  <si>
-    <t>0,1200001|1,1200002|2,1200003</t>
-  </si>
-  <si>
-    <t>纯单机战斗测试</t>
-  </si>
-  <si>
-    <t>25,0,25|25,0,26|24,0,18</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -1204,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1218,11 +1215,12 @@
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
     <col min="9" max="9" width="31.75" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1250,84 +1248,93 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1335,34 +1342,37 @@
         <v>5001011</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G4" s="2">
         <v>6001001</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K4" s="1">
         <v>8001001</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1370,34 +1380,37 @@
         <v>5001012</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G5" s="2">
         <v>6001001</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K5" s="1">
         <v>8001001</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1405,34 +1418,37 @@
         <v>5001013</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G6" s="2">
         <v>6001001</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K6" s="1">
         <v>8001001</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1440,34 +1456,37 @@
         <v>5001014</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G7" s="2">
         <v>6001001</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K7" s="1">
         <v>8001001</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1475,34 +1494,37 @@
         <v>5001015</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G8" s="2">
         <v>6001001</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K8" s="1">
         <v>8001001</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1510,8 +1532,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1519,16 +1542,16 @@
         <v>5001021</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G10" s="2">
         <v>6001001</v>
@@ -1537,16 +1560,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="1">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K10" s="1">
         <v>8001001</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1554,16 +1580,16 @@
         <v>5001022</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G11" s="2">
         <v>6001001</v>
@@ -1572,16 +1598,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="1">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K11" s="1">
         <v>8001001</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1589,16 +1618,16 @@
         <v>5001023</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G12" s="2">
         <v>6001001</v>
@@ -1607,16 +1636,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="1">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K12" s="1">
         <v>8001001</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
+      <c r="L12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1624,8 +1656,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1633,16 +1666,16 @@
         <v>5001031</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G14" s="2">
         <v>6001001</v>
@@ -1651,16 +1684,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="1">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K14" s="1">
         <v>8001001</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1668,16 +1704,16 @@
         <v>5001032</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G15" s="2">
         <v>6001001</v>
@@ -1686,16 +1722,19 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="1">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K15" s="1">
         <v>8001001</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1703,16 +1742,16 @@
         <v>5001033</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G16" s="2">
         <v>6001001</v>
@@ -1721,16 +1760,19 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="1">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K16" s="1">
         <v>8001001</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
+      <c r="L16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1738,8 +1780,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1747,34 +1790,37 @@
         <v>5002001</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2">
-        <v>7001001</v>
+        <v>7900010</v>
       </c>
       <c r="G18" s="2">
         <v>6002001</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>42</v>
+      <c r="H18" s="2">
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="1">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K18" s="1">
         <v>8002001</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1782,10 +1828,10 @@
         <v>5900001</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1797,19 +1843,22 @@
         <v>6001001</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="1">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K23" s="1">
         <v>8001001</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1817,10 +1866,10 @@
         <v>5900002</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1832,19 +1881,22 @@
         <v>6001001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="1">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K24" s="1">
         <v>8001001</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1852,10 +1904,10 @@
         <v>5900010</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1867,31 +1919,34 @@
         <v>6003001</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="1">
+        <v>28</v>
+      </c>
+      <c r="J26" s="2">
+        <v>150000</v>
+      </c>
+      <c r="K26" s="1">
         <v>8001001</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>27</v>
+      <c r="L26" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -177,7 +177,10 @@
     <t>主线 3-3</t>
   </si>
   <si>
-    <t>组队副本 1</t>
+    <t>峨眉云霄峰</t>
+  </si>
+  <si>
+    <t>攀登至峨眉山的最高处云霄峰，众人将面临至高无上的挑战。云霄峰的巅峰乃是最终对决之地，最后的敌人昆仑派掌门叶须眉等待着能够战胜他的对手。风云变幻，剑气纵横，唯有战胜叶须眉，方能成为武林盟主，征服九州武林。</t>
   </si>
   <si>
     <t>纯单机战斗</t>
@@ -195,22 +198,28 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1200001</t>
+    <t>0,1200021</t>
   </si>
   <si>
     <t>1200021 唐依</t>
   </si>
   <si>
-    <t>0,1000202 刀疤</t>
+    <t>1000210 刀疤</t>
   </si>
   <si>
     <t>1200001 上官唯</t>
+  </si>
+  <si>
+    <t>1000201 怪物1</t>
+  </si>
+  <si>
+    <t>1000202 怪物2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -226,34 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -270,6 +251,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -279,41 +299,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,12 +352,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -396,49 +405,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,121 +543,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,21 +596,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,6 +628,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,148 +701,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,52 +865,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1201,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1363,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K4" s="1">
         <v>8001001</v>
@@ -1401,7 +1410,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K5" s="1">
         <v>8001001</v>
@@ -1439,7 +1448,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K6" s="1">
         <v>8001001</v>
@@ -1477,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="J7" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K7" s="1">
         <v>8001001</v>
@@ -1515,7 +1524,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K8" s="1">
         <v>8001001</v>
@@ -1563,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="J10" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K10" s="1">
         <v>8001001</v>
@@ -1601,7 +1610,7 @@
         <v>28</v>
       </c>
       <c r="J11" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K11" s="1">
         <v>8001001</v>
@@ -1639,7 +1648,7 @@
         <v>28</v>
       </c>
       <c r="J12" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K12" s="1">
         <v>8001001</v>
@@ -1687,7 +1696,7 @@
         <v>28</v>
       </c>
       <c r="J14" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K14" s="1">
         <v>8001001</v>
@@ -1725,7 +1734,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K15" s="1">
         <v>8001001</v>
@@ -1763,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K16" s="1">
         <v>8001001</v>
@@ -1793,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -1811,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="J18" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K18" s="1">
         <v>8002001</v>
@@ -1828,10 +1837,10 @@
         <v>5900001</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1843,13 +1852,13 @@
         <v>6001001</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K23" s="1">
         <v>8001001</v>
@@ -1866,10 +1875,10 @@
         <v>5900002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1881,13 +1890,13 @@
         <v>6001001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="K24" s="1">
         <v>8001001</v>
@@ -1904,10 +1913,10 @@
         <v>5900010</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1919,13 +1928,13 @@
         <v>6003001</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="2">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="K26" s="1">
         <v>8001001</v>
@@ -1936,17 +1945,27 @@
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1982,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1980,7 +1999,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -11,7 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -81,6 +94,9 @@
     <t>bossLimitTime</t>
   </si>
   <si>
+    <t>processId</t>
+  </si>
+  <si>
     <t>battleConfigId</t>
   </si>
   <si>
@@ -121,6 +137,9 @@
   </si>
   <si>
     <t>boss限时击杀时间(*1000 微妙)</t>
+  </si>
+  <si>
+    <t>关卡流程id</t>
   </si>
   <si>
     <t>战斗配置id</t>
@@ -219,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1210,10 +1229,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1224,12 +1243,12 @@
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
     <col min="9" max="9" width="31.75" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="43.25" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" customWidth="1"/>
+    <col min="13" max="13" width="43.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,90 +1279,99 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1351,10 +1379,10 @@
         <v>5001011</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1366,22 +1394,25 @@
         <v>6001001</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2">
         <v>10000</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1">
         <v>8001001</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1389,10 +1420,10 @@
         <v>5001012</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1404,22 +1435,25 @@
         <v>6001001</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2">
         <v>10000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1">
         <v>8001001</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1427,10 +1461,10 @@
         <v>5001013</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1442,22 +1476,25 @@
         <v>6001001</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2">
         <v>10000</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
         <v>8001001</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1465,10 +1502,10 @@
         <v>5001014</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1480,22 +1517,25 @@
         <v>6001001</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
         <v>10000</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
         <v>8001001</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1503,10 +1543,10 @@
         <v>5001015</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1518,22 +1558,25 @@
         <v>6001001</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2">
         <v>10000</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1">
         <v>8001001</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10">
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1542,8 +1585,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1551,10 +1595,10 @@
         <v>5001021</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1569,19 +1613,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
         <v>10000</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1">
         <v>8001001</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1589,10 +1636,10 @@
         <v>5001022</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1607,19 +1654,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2">
         <v>10000</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1">
         <v>8001001</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1627,10 +1677,10 @@
         <v>5001023</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1645,19 +1695,22 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
         <v>10000</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
         <v>8001001</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1666,8 +1719,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1675,10 +1729,10 @@
         <v>5001031</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1693,19 +1747,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2">
         <v>10000</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1">
         <v>8001001</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1713,10 +1770,10 @@
         <v>5001032</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1731,19 +1788,22 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2">
         <v>10000</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
         <v>8001001</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1751,10 +1811,10 @@
         <v>5001033</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1769,19 +1829,22 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
         <v>10000</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1">
         <v>8001001</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+      <c r="M16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1790,8 +1853,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1799,10 +1863,10 @@
         <v>5002001</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -1817,19 +1881,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2">
         <v>10000</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1">
         <v>8002001</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1837,10 +1904,10 @@
         <v>5900001</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1852,22 +1919,25 @@
         <v>6001001</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J23" s="2">
         <v>10000</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1">
         <v>8001001</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1875,10 +1945,10 @@
         <v>5900002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1890,22 +1960,25 @@
         <v>6001001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J24" s="2">
         <v>10000</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1">
         <v>8001001</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1913,10 +1986,10 @@
         <v>5900010</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1928,44 +2001,47 @@
         <v>6003001</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J26" s="2">
         <v>120000</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1">
         <v>8001001</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>29</v>
+      <c r="M26" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/Battle.xlsx
+++ b/data_table/Battle.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;List&lt;int&gt;&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -1232,7 +1235,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1312,10 +1315,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -1327,48 +1330,48 @@
         <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1379,10 +1382,10 @@
         <v>5001011</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1394,10 +1397,10 @@
         <v>6001001</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2">
         <v>10000</v>
@@ -1409,7 +1412,7 @@
         <v>8001001</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1420,10 +1423,10 @@
         <v>5001012</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1435,10 +1438,10 @@
         <v>6001001</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2">
         <v>10000</v>
@@ -1450,7 +1453,7 @@
         <v>8001001</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1461,10 +1464,10 @@
         <v>5001013</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1476,10 +1479,10 @@
         <v>6001001</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2">
         <v>10000</v>
@@ -1491,7 +1494,7 @@
         <v>8001001</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1502,10 +1505,10 @@
         <v>5001014</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1517,10 +1520,10 @@
         <v>6001001</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2">
         <v>10000</v>
@@ -1532,7 +1535,7 @@
         <v>8001001</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1543,10 +1546,10 @@
         <v>5001015</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1558,10 +1561,10 @@
         <v>6001001</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2">
         <v>10000</v>
@@ -1573,7 +1576,7 @@
         <v>8001001</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="3:11">
@@ -1595,10 +1598,10 @@
         <v>5001021</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2">
         <v>10000</v>
@@ -1625,7 +1628,7 @@
         <v>8001001</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1636,10 +1639,10 @@
         <v>5001022</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1654,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11" s="2">
         <v>10000</v>
@@ -1666,7 +1669,7 @@
         <v>8001001</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1677,10 +1680,10 @@
         <v>5001023</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1695,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2">
         <v>10000</v>
@@ -1707,7 +1710,7 @@
         <v>8001001</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="3:11">
@@ -1729,10 +1732,10 @@
         <v>5001031</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1747,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="2">
         <v>10000</v>
@@ -1759,7 +1762,7 @@
         <v>8001001</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1770,10 +1773,10 @@
         <v>5001032</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1788,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" s="2">
         <v>10000</v>
@@ -1800,7 +1803,7 @@
         <v>8001001</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1811,10 +1814,10 @@
         <v>5001033</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1829,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2">
         <v>10000</v>
@@ -1841,7 +1844,7 @@
         <v>8001001</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:11">
@@ -1863,10 +1866,10 @@
         <v>5002001</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -1881,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2">
         <v>10000</v>
@@ -1893,7 +1896,7 @@
         <v>8002001</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1904,10 +1907,10 @@
         <v>5900001</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1919,10 +1922,10 @@
         <v>6001001</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J23" s="2">
         <v>10000</v>
@@ -1934,7 +1937,7 @@
         <v>8001001</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1945,10 +1948,10 @@
         <v>5900002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1960,10 +1963,10 @@
         <v>6001001</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J24" s="2">
         <v>10000</v>
@@ -1975,7 +1978,7 @@
         <v>8001001</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1986,10 +1989,10 @@
         <v>5900010</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2001,10 +2004,10 @@
         <v>6003001</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" s="2">
         <v>120000</v>
@@ -2016,32 +2019,32 @@
         <v>8001001</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
